--- a/Comparison_Matrices/security.xlsx
+++ b/Comparison_Matrices/security.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guribhangu/development/research/qatch/Comparison_Matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB5E27B-2B4B-2D43-BF8B-E2316191C5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED0569-AB33-0342-92F9-30BF70D5B0BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{FDFFFD59-17B3-9448-BCFD-48802E6E7F2F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20660" xr2:uid="{FDFFFD59-17B3-9448-BCFD-48802E6E7F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
